--- a/docs/influence/auto/joy/gw_full_nlp_n5-25_oter_joy.xlsx
+++ b/docs/influence/auto/joy/gw_full_nlp_n5-25_oter_joy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/cat/Users/dend/prog/say_sila/docs/influence/auto/joy/csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{26A4EEF6-6168-3643-8DF4-927EEA4E40B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{40C05E9C-0735-BE49-8B9C-6B56E303BAD1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60280" yWindow="8200" windowWidth="33720" windowHeight="17440"/>
+    <workbookView xWindow="5660" yWindow="8500" windowWidth="31820" windowHeight="16940"/>
   </bookViews>
   <sheets>
     <sheet name="gw_full_nlp_n5-25_oter_joy" sheetId="1" r:id="rId1"/>
@@ -583,8 +583,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -943,7 +943,7 @@
   <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="A10" sqref="A10:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1033,16 +1033,16 @@
         <v>25</v>
       </c>
       <c r="E2">
-        <v>0.27309600000000001</v>
+        <v>0.36216399999999999</v>
       </c>
       <c r="F2">
         <v>39</v>
       </c>
       <c r="T2">
-        <v>-0.16291</v>
+        <v>-0.18571699999999999</v>
       </c>
       <c r="W2">
-        <v>0.29878300000000002</v>
+        <v>0.30244100000000002</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
@@ -1059,48 +1059,48 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>0.32757599999999998</v>
+        <v>0.41289999999999999</v>
       </c>
       <c r="F3">
         <v>39</v>
       </c>
       <c r="T3">
-        <v>-0.18202599999999999</v>
+        <v>-0.204987</v>
       </c>
       <c r="W3">
-        <v>0.30534099999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A4">
+        <v>0.30897599999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4">
-        <v>0.77653399999999995</v>
-      </c>
-      <c r="F4">
-        <v>39</v>
-      </c>
-      <c r="H4">
-        <v>0.21108199999999999</v>
-      </c>
-      <c r="J4">
-        <v>0.39338099999999998</v>
-      </c>
-      <c r="T4">
-        <v>-9.1333999999999999E-2</v>
-      </c>
-      <c r="W4">
-        <v>5.7435E-2</v>
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.77787200000000001</v>
+      </c>
+      <c r="F4" s="1">
+        <v>39</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.21196200000000001</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.37908599999999998</v>
+      </c>
+      <c r="T4" s="1">
+        <v>-9.3099000000000001E-2</v>
+      </c>
+      <c r="W4" s="1">
+        <v>6.3551999999999997E-2</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
@@ -1117,407 +1117,401 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>0.64229499999999995</v>
+        <v>0.66364900000000004</v>
       </c>
       <c r="F5">
         <v>39</v>
       </c>
       <c r="H5">
-        <v>0.25437399999999999</v>
+        <v>0.25110900000000003</v>
       </c>
       <c r="J5">
-        <v>0.31904700000000003</v>
+        <v>0.30023100000000003</v>
       </c>
       <c r="T5">
-        <v>-9.1934000000000002E-2</v>
+        <v>-0.103867</v>
       </c>
       <c r="W5">
-        <v>8.0779000000000004E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+        <v>9.1406000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>9</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.78124099999999996</v>
-      </c>
-      <c r="F6" s="2">
-        <v>39</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0.25545699999999999</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0.26663500000000001</v>
-      </c>
-      <c r="T6" s="2">
-        <v>-6.9821999999999995E-2</v>
-      </c>
-      <c r="W6" s="2">
-        <v>0.103533</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.78920999999999997</v>
+      </c>
+      <c r="F6" s="1">
+        <v>39</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.27297100000000002</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.25314500000000001</v>
+      </c>
+      <c r="L6" s="1">
+        <v>-0.16173699999999999</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.121362</v>
+      </c>
+      <c r="T6" s="1">
+        <v>-8.1377000000000005E-2</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0.115967</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
         <v>10</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.83892299999999997</v>
-      </c>
-      <c r="F7" s="1">
-        <v>39</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.224132</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0.13885</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0.18491299999999999</v>
-      </c>
-      <c r="T7" s="1">
-        <v>-8.3578E-2</v>
-      </c>
-      <c r="W7" s="1">
-        <v>0.131938</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.86122699999999996</v>
+      </c>
+      <c r="F7" s="2">
+        <v>39</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.227404</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.214003</v>
+      </c>
+      <c r="T7" s="2">
+        <v>-9.4329999999999997E-2</v>
+      </c>
+      <c r="W7" s="2">
+        <v>0.140623</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
         <v>11</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.82743</v>
-      </c>
-      <c r="F8" s="1">
-        <v>39</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.30964799999999998</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0.17225499999999999</v>
-      </c>
-      <c r="I8" s="1">
-        <v>-0.213118</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0.152284</v>
-      </c>
-      <c r="T8" s="1">
-        <v>-8.0110000000000001E-2</v>
-      </c>
-      <c r="W8" s="1">
-        <v>0.15412500000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.85047799999999996</v>
+      </c>
+      <c r="F8" s="2">
+        <v>39</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.206403</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.11661299999999999</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.152694</v>
+      </c>
+      <c r="T8" s="2">
+        <v>-9.1994000000000006E-2</v>
+      </c>
+      <c r="W8" s="2">
+        <v>0.159276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
         <v>12</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.82528100000000004</v>
-      </c>
-      <c r="F9" s="1">
-        <v>39</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.34383999999999998</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0.12009</v>
-      </c>
-      <c r="T9" s="1">
-        <v>-8.8368000000000002E-2</v>
-      </c>
-      <c r="W9" s="1">
-        <v>0.180863</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.84660299999999999</v>
+      </c>
+      <c r="F9" s="2">
+        <v>39</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.32863100000000001</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.118299</v>
+      </c>
+      <c r="T9" s="2">
+        <v>-0.106865</v>
+      </c>
+      <c r="W9" s="2">
+        <v>0.18760599999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>13</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.76765300000000003</v>
-      </c>
-      <c r="F10" s="2">
-        <v>39</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0.24898899999999999</v>
-      </c>
-      <c r="J10" s="2">
-        <v>8.5412000000000002E-2</v>
-      </c>
-      <c r="T10" s="2">
-        <v>-9.2316999999999996E-2</v>
-      </c>
-      <c r="W10" s="2">
-        <v>0.217886</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.78155300000000005</v>
+      </c>
+      <c r="F10" s="1">
+        <v>39</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.23247399999999999</v>
+      </c>
+      <c r="J10" s="1">
+        <v>8.3609000000000003E-2</v>
+      </c>
+      <c r="T10" s="1">
+        <v>-0.11315600000000001</v>
+      </c>
+      <c r="W10" s="1">
+        <v>0.22522600000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>14</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.76766400000000001</v>
-      </c>
-      <c r="F11" s="2">
-        <v>39</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0.24907000000000001</v>
-      </c>
-      <c r="J11" s="2">
-        <v>8.5414000000000004E-2</v>
-      </c>
-      <c r="T11" s="2">
-        <v>-9.2273999999999995E-2</v>
-      </c>
-      <c r="W11" s="2">
-        <v>0.217865</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.78151700000000002</v>
+      </c>
+      <c r="F11" s="1">
+        <v>39</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.23256099999999999</v>
+      </c>
+      <c r="J11" s="1">
+        <v>8.3613000000000007E-2</v>
+      </c>
+      <c r="T11" s="1">
+        <v>-0.113105</v>
+      </c>
+      <c r="W11" s="1">
+        <v>0.22520100000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>15</v>
       </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12">
-        <v>0.68231600000000003</v>
-      </c>
-      <c r="F12">
-        <v>39</v>
-      </c>
-      <c r="H12">
-        <v>8.7953000000000003E-2</v>
-      </c>
-      <c r="J12">
-        <v>0.10459300000000001</v>
-      </c>
-      <c r="T12">
-        <v>-9.4798999999999994E-2</v>
-      </c>
-      <c r="W12">
-        <v>0.235571</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.71013599999999999</v>
+      </c>
+      <c r="F12" s="1">
+        <v>39</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.13411300000000001</v>
+      </c>
+      <c r="I12" s="1">
+        <v>-0.15873799999999999</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.10693999999999999</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>5.6432999999999997E-2</v>
+      </c>
+      <c r="T12" s="1">
+        <v>-0.14171</v>
+      </c>
+      <c r="W12" s="1">
+        <v>0.24427699999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>16</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0.74038599999999999</v>
-      </c>
-      <c r="F13" s="2">
-        <v>39</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0.17086599999999999</v>
-      </c>
-      <c r="J13" s="2">
-        <v>9.5717999999999998E-2</v>
-      </c>
-      <c r="O13" s="2">
-        <v>-6.6950999999999997E-2</v>
-      </c>
-      <c r="U13" s="2">
-        <v>-0.15465100000000001</v>
-      </c>
-      <c r="V13" s="2">
-        <v>4.0617E-2</v>
-      </c>
-      <c r="W13" s="2">
-        <v>0.24094099999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.77046800000000004</v>
+      </c>
+      <c r="F13" s="1">
+        <v>39</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.15931799999999999</v>
+      </c>
+      <c r="J13" s="1">
+        <v>9.7275E-2</v>
+      </c>
+      <c r="O13" s="1">
+        <v>-7.1521000000000001E-2</v>
+      </c>
+      <c r="U13" s="1">
+        <v>-0.16855899999999999</v>
+      </c>
+      <c r="V13" s="1">
+        <v>4.3206000000000001E-2</v>
+      </c>
+      <c r="W13" s="1">
+        <v>0.24413799999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>17</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0.711835</v>
-      </c>
-      <c r="F14" s="2">
-        <v>39</v>
-      </c>
-      <c r="H14" s="2">
-        <v>9.6773999999999999E-2</v>
-      </c>
-      <c r="J14" s="2">
-        <v>0.119314</v>
-      </c>
-      <c r="O14" s="2">
-        <v>-5.3302000000000002E-2</v>
-      </c>
-      <c r="U14" s="2">
-        <v>-0.15074399999999999</v>
-      </c>
-      <c r="V14" s="2">
-        <v>3.3749000000000001E-2</v>
-      </c>
-      <c r="W14" s="2">
-        <v>0.23583899999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="B14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.76605100000000004</v>
+      </c>
+      <c r="F14" s="1">
+        <v>39</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.103066</v>
+      </c>
+      <c r="J14" s="1">
+        <v>9.8295999999999994E-2</v>
+      </c>
+      <c r="T14" s="1">
+        <v>-0.133158</v>
+      </c>
+      <c r="W14" s="1">
+        <v>0.24342900000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>18</v>
       </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15">
-        <v>0.69978899999999999</v>
-      </c>
-      <c r="F15">
-        <v>39</v>
-      </c>
-      <c r="H15">
-        <v>9.1426999999999994E-2</v>
-      </c>
-      <c r="J15">
-        <v>0.103412</v>
-      </c>
-      <c r="O15">
-        <v>-5.1864E-2</v>
-      </c>
-      <c r="U15">
-        <v>-0.14278099999999999</v>
-      </c>
-      <c r="V15">
-        <v>3.6875999999999999E-2</v>
-      </c>
-      <c r="W15">
-        <v>0.24191799999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="B15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.76578100000000004</v>
+      </c>
+      <c r="F15" s="1">
+        <v>39</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.266405</v>
+      </c>
+      <c r="T15" s="1">
+        <v>-0.14868100000000001</v>
+      </c>
+      <c r="W15" s="1">
+        <v>0.262513</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>19</v>
       </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16">
-        <v>0.68754999999999999</v>
-      </c>
-      <c r="F16">
-        <v>39</v>
-      </c>
-      <c r="H16">
-        <v>7.4720999999999996E-2</v>
-      </c>
-      <c r="J16">
-        <v>9.1134999999999994E-2</v>
-      </c>
-      <c r="O16">
-        <v>-5.7327000000000003E-2</v>
-      </c>
-      <c r="U16">
-        <v>-0.14078099999999999</v>
-      </c>
-      <c r="V16">
-        <v>4.2668999999999999E-2</v>
-      </c>
-      <c r="W16">
-        <v>0.25146099999999999</v>
+      <c r="B16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.71022099999999999</v>
+      </c>
+      <c r="F16" s="1">
+        <v>39</v>
+      </c>
+      <c r="H16" s="1">
+        <v>7.8699000000000005E-2</v>
+      </c>
+      <c r="J16" s="1">
+        <v>8.6425000000000002E-2</v>
+      </c>
+      <c r="N16" s="1">
+        <v>7.8895000000000007E-2</v>
+      </c>
+      <c r="O16" s="1">
+        <v>-7.7542E-2</v>
+      </c>
+      <c r="U16" s="1">
+        <v>-0.13930799999999999</v>
+      </c>
+      <c r="V16" s="1">
+        <v>3.9562E-2</v>
+      </c>
+      <c r="W16" s="1">
+        <v>0.23482500000000001</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
@@ -1534,28 +1528,25 @@
         <v>25</v>
       </c>
       <c r="E17">
-        <v>0.55184299999999997</v>
+        <v>0.69873600000000002</v>
       </c>
       <c r="F17">
         <v>39</v>
       </c>
-      <c r="G17">
-        <v>0.130022</v>
-      </c>
       <c r="J17">
-        <v>6.0387000000000003E-2</v>
+        <v>0.109683</v>
       </c>
       <c r="O17">
-        <v>-6.8836999999999995E-2</v>
+        <v>-7.4205999999999994E-2</v>
       </c>
       <c r="U17">
-        <v>-0.12556500000000001</v>
+        <v>-0.14880199999999999</v>
       </c>
       <c r="V17">
-        <v>5.2248000000000003E-2</v>
+        <v>5.0181999999999997E-2</v>
       </c>
       <c r="W17">
-        <v>0.25800299999999998</v>
+        <v>0.26795600000000003</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
@@ -1572,28 +1563,28 @@
         <v>25</v>
       </c>
       <c r="E18">
-        <v>0.422738</v>
+        <v>0.48562100000000002</v>
       </c>
       <c r="F18">
         <v>39</v>
       </c>
       <c r="J18">
-        <v>8.7464E-2</v>
+        <v>8.6421999999999999E-2</v>
       </c>
       <c r="N18">
-        <v>8.072E-2</v>
+        <v>9.0834999999999999E-2</v>
       </c>
       <c r="O18">
-        <v>-7.9953999999999997E-2</v>
+        <v>-8.6033999999999999E-2</v>
       </c>
       <c r="U18">
-        <v>-0.10754</v>
+        <v>-0.11772000000000001</v>
       </c>
       <c r="V18">
-        <v>3.9291E-2</v>
+        <v>4.1280999999999998E-2</v>
       </c>
       <c r="W18">
-        <v>0.25397799999999998</v>
+        <v>0.25302400000000003</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
@@ -1610,25 +1601,25 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>0.43111300000000002</v>
+        <v>0.42360799999999998</v>
       </c>
       <c r="F19">
         <v>39</v>
       </c>
       <c r="H19">
-        <v>0.10796799999999999</v>
+        <v>6.9843000000000002E-2</v>
       </c>
       <c r="N19">
-        <v>0.121611</v>
+        <v>0.124944</v>
       </c>
       <c r="O19">
-        <v>-8.7623000000000006E-2</v>
-      </c>
-      <c r="V19">
-        <v>4.0099999999999997E-2</v>
+        <v>-5.5967999999999997E-2</v>
+      </c>
+      <c r="T19">
+        <v>-8.2570000000000005E-2</v>
       </c>
       <c r="W19">
-        <v>0.23413800000000001</v>
+        <v>0.26177099999999998</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
@@ -1645,34 +1636,28 @@
         <v>25</v>
       </c>
       <c r="E20">
-        <v>0.39952799999999999</v>
+        <v>0.61315399999999998</v>
       </c>
       <c r="F20">
         <v>39</v>
       </c>
-      <c r="G20">
-        <v>-0.12135799999999999</v>
-      </c>
       <c r="H20">
-        <v>0.123721</v>
-      </c>
-      <c r="J20">
-        <v>5.8224999999999999E-2</v>
+        <v>9.0386999999999995E-2</v>
       </c>
       <c r="M20">
-        <v>-0.15451100000000001</v>
+        <v>-0.13902500000000001</v>
       </c>
       <c r="N20">
-        <v>0.17688400000000001</v>
+        <v>0.176485</v>
       </c>
       <c r="O20">
-        <v>-8.3658999999999997E-2</v>
-      </c>
-      <c r="U20">
-        <v>-6.7343E-2</v>
+        <v>-7.2600999999999999E-2</v>
+      </c>
+      <c r="T20">
+        <v>-7.9208000000000001E-2</v>
       </c>
       <c r="W20">
-        <v>0.263874</v>
+        <v>0.27141300000000002</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
@@ -1689,28 +1674,34 @@
         <v>25</v>
       </c>
       <c r="E21">
-        <v>0.479796</v>
+        <v>0.41064000000000001</v>
       </c>
       <c r="F21">
         <v>39</v>
       </c>
+      <c r="G21">
+        <v>-0.12017</v>
+      </c>
+      <c r="H21">
+        <v>0.12343</v>
+      </c>
       <c r="J21">
-        <v>9.5232999999999998E-2</v>
-      </c>
-      <c r="K21">
-        <v>-0.11341</v>
+        <v>5.9663000000000001E-2</v>
+      </c>
+      <c r="M21">
+        <v>-0.159664</v>
       </c>
       <c r="N21">
-        <v>0.14463200000000001</v>
+        <v>0.19178300000000001</v>
       </c>
       <c r="O21">
-        <v>-9.1156000000000001E-2</v>
+        <v>-9.0764999999999998E-2</v>
       </c>
       <c r="U21">
-        <v>-7.9824999999999993E-2</v>
+        <v>-8.1543000000000004E-2</v>
       </c>
       <c r="W21">
-        <v>0.27642699999999998</v>
+        <v>0.26491100000000001</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
@@ -1727,25 +1718,34 @@
         <v>25</v>
       </c>
       <c r="E22">
-        <v>0.602132</v>
+        <v>0.53406699999999996</v>
       </c>
       <c r="F22">
         <v>39</v>
       </c>
+      <c r="G22">
+        <v>-0.144869</v>
+      </c>
       <c r="H22">
-        <v>0.13819600000000001</v>
+        <v>0.14532900000000001</v>
+      </c>
+      <c r="J22">
+        <v>6.2442999999999999E-2</v>
       </c>
       <c r="M22">
-        <v>-0.194047</v>
+        <v>-0.17843300000000001</v>
       </c>
       <c r="N22">
-        <v>0.19173699999999999</v>
+        <v>0.19343199999999999</v>
       </c>
       <c r="O22">
-        <v>-9.1724E-2</v>
+        <v>-9.2562000000000005E-2</v>
+      </c>
+      <c r="U22">
+        <v>-7.7528E-2</v>
       </c>
       <c r="W22">
-        <v>0.25593300000000002</v>
+        <v>0.26396900000000001</v>
       </c>
     </row>
   </sheetData>
